--- a/individual_results/avey/290.xlsx
+++ b/individual_results/avey/290.xlsx
@@ -582,7 +582,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0.3333333333333333</v>
@@ -594,7 +594,7 @@
         <v>0.25</v>
       </c>
       <c r="P2" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="W2" t="n">
         <v>0.5</v>
@@ -655,7 +655,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0.3333333333333333</v>
@@ -667,7 +667,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -721,9 +721,7 @@
       <c r="K4" t="n">
         <v>0.5</v>
       </c>
-      <c r="L4" t="n">
-        <v>0.8</v>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>0.3333333333333333</v>
       </c>
@@ -733,9 +731,7 @@
       <c r="O4" t="n">
         <v>0.3636363636363636</v>
       </c>
-      <c r="P4" t="n">
-        <v>0.1818181818181818</v>
-      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
         <v>0.8</v>
@@ -750,7 +746,7 @@
         <v>0.8</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="W4" t="n">
         <v>0.6666666666666666</v>
@@ -786,9 +782,7 @@
       <c r="K5" t="n">
         <v>0.3846153846153846</v>
       </c>
-      <c r="L5" t="n">
-        <v>0.7142857142857142</v>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>0.3333333333333333</v>
       </c>
@@ -798,9 +792,7 @@
       <c r="O5" t="n">
         <v>0.5</v>
       </c>
-      <c r="P5" t="n">
-        <v>0.25</v>
-      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
         <v>0.7142857142857142</v>
@@ -815,7 +807,7 @@
         <v>0.7142857142857142</v>
       </c>
       <c r="V5" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="W5" t="n">
         <v>0.8333333333333334</v>
@@ -858,7 +850,7 @@
         <v>0.7452525342261976</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3079797896471021</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0.3726262671130988</v>
@@ -870,7 +862,7 @@
         <v>0.7831760069264603</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3209627963360124</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -888,7 +880,7 @@
         <v>0.8124242481930318</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6710851172397473</v>
+        <v>0.992619504174702</v>
       </c>
       <c r="W6" t="n">
         <v>0.6710851172397473</v>
@@ -961,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="V7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" t="b">
         <v>0</v>
@@ -1089,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="b">
         <v>0</v>
@@ -1153,9 +1145,7 @@
       <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
         <v>1</v>
@@ -1170,7 +1160,7 @@
         <v>1</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W10" t="n">
         <v>2</v>
@@ -1241,7 +1231,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="W11" t="n">
         <v>2</v>
